--- a/data_year/zb/金融业/货币当局资产负债表.xlsx
+++ b/data_year/zb/金融业/货币当局资产负债表.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W15"/>
+  <dimension ref="A1:W13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -548,209 +548,205 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
+          <t>2010年</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>657.2</v>
+      </c>
       <c r="C2" t="n">
-        <v>101545.4</v>
+        <v>185311.080994803</v>
       </c>
       <c r="D2" t="n">
-        <v>32971.58</v>
+        <v>48646.020411</v>
       </c>
       <c r="E2" t="n">
-        <v>9319.23</v>
+        <v>7983.0560545984</v>
       </c>
       <c r="F2" t="n">
-        <v>14837.14</v>
+        <v>7592.2338347257</v>
       </c>
       <c r="G2" t="n">
-        <v>7098.18</v>
+        <v>7597.6746692942</v>
       </c>
       <c r="H2" t="n">
-        <v>321.02</v>
+        <v>184.2</v>
       </c>
       <c r="I2" t="n">
-        <v>34469.13</v>
+        <v>40497.2309</v>
       </c>
       <c r="J2" t="n">
-        <v>947.28</v>
+        <v>720.0806154808</v>
       </c>
       <c r="K2" t="n">
-        <v>124825.18</v>
+        <v>215419.6</v>
       </c>
       <c r="L2" t="n">
-        <v>115168.71</v>
+        <v>206766.707298784</v>
       </c>
       <c r="M2" t="n">
-        <v>68094.84</v>
+        <v>136480.86185305</v>
       </c>
       <c r="N2" t="n">
-        <v>12972.34</v>
+        <v>11325.8070174142</v>
       </c>
       <c r="O2" t="n">
-        <v>7862.8</v>
+        <v>9485.700000000001</v>
       </c>
       <c r="P2" t="n">
-        <v>16317.71</v>
+        <v>15421.1108719534</v>
       </c>
       <c r="Q2" t="n">
-        <v>63.59</v>
+        <v>24.9893339719</v>
       </c>
       <c r="R2" t="n">
-        <v>169139.8</v>
+        <v>259274.889896926</v>
       </c>
       <c r="S2" t="n">
-        <v>169139.8</v>
+        <v>259274.889896926</v>
       </c>
       <c r="T2" t="n">
-        <v>17121.1</v>
+        <v>24277.3213707614</v>
       </c>
       <c r="U2" t="n">
-        <v>219.75</v>
+        <v>219.7520266321</v>
       </c>
       <c r="V2" t="n">
-        <v>337.24</v>
+        <v>669.84</v>
       </c>
       <c r="W2" t="n">
-        <v>68415.86</v>
+        <v>136665.060583803</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591.2</v>
+        <v>908.3653783659</v>
       </c>
       <c r="C3" t="n">
-        <v>129222.33</v>
+        <v>224641.755198046</v>
       </c>
       <c r="D3" t="n">
-        <v>37115.76</v>
+        <v>55850.071061</v>
       </c>
       <c r="E3" t="n">
-        <v>12582.02</v>
+        <v>4839.4924161391</v>
       </c>
       <c r="F3" t="n">
-        <v>13586.45</v>
+        <v>6437.9686138666</v>
       </c>
       <c r="G3" t="n">
-        <v>8027.2</v>
-      </c>
-      <c r="H3" t="n">
-        <v>211.85</v>
-      </c>
+        <v>6763.3087847638</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>45779.83</v>
+        <v>23336.657</v>
       </c>
       <c r="J3" t="n">
-        <v>732.59</v>
+        <v>2699.4377338759</v>
       </c>
       <c r="K3" t="n">
-        <v>162543.52</v>
+        <v>237898.060670305</v>
       </c>
       <c r="L3" t="n">
-        <v>149624.26</v>
+        <v>232388.728254166</v>
       </c>
       <c r="M3" t="n">
-        <v>91894.72</v>
+        <v>168791.684137046</v>
       </c>
       <c r="N3" t="n">
-        <v>11852.66</v>
+        <v>10643.9666173637</v>
       </c>
       <c r="O3" t="n">
-        <v>8432.5</v>
+        <v>10247.5399982162</v>
       </c>
       <c r="P3" t="n">
-        <v>16195.99</v>
+        <v>15399.7312477342</v>
       </c>
       <c r="Q3" t="n">
-        <v>44.12</v>
+        <v>24.9893339719</v>
       </c>
       <c r="R3" t="n">
-        <v>207095.99</v>
+        <v>280977.596652355</v>
       </c>
       <c r="S3" t="n">
-        <v>207095.99</v>
+        <v>280977.596652355</v>
       </c>
       <c r="T3" t="n">
-        <v>16963.84</v>
+        <v>22733.6607015687</v>
       </c>
       <c r="U3" t="n">
-        <v>219.75</v>
+        <v>219.7520266321</v>
       </c>
       <c r="V3" t="n">
-        <v>337.24</v>
-      </c>
-      <c r="W3" t="n">
-        <v>92106.57000000001</v>
-      </c>
+        <v>669.84</v>
+      </c>
+      <c r="W3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>624.7748441316</v>
+        <v>1348.8473406409</v>
       </c>
       <c r="C4" t="n">
-        <v>143985</v>
+        <v>252345.169202519</v>
       </c>
       <c r="D4" t="n">
-        <v>41555.8</v>
+        <v>60645.965831</v>
       </c>
       <c r="E4" t="n">
-        <v>9508.5738892919</v>
+        <v>4077.1252715827</v>
       </c>
       <c r="F4" t="n">
-        <v>18653.2031055556</v>
+        <v>4525.9129429912</v>
       </c>
       <c r="G4" t="n">
-        <v>7804.0251046249</v>
-      </c>
-      <c r="H4" t="n">
-        <v>148.5228928495</v>
-      </c>
+        <v>11041.9058833044</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="n">
-        <v>42064.2079</v>
+        <v>13880</v>
       </c>
       <c r="J4" t="n">
-        <v>761.7249265783</v>
+        <v>1464.2396097341</v>
       </c>
       <c r="K4" t="n">
-        <v>185333</v>
+        <v>241416.896291418</v>
       </c>
       <c r="L4" t="n">
-        <v>175154.585311569</v>
+        <v>236669.931019835</v>
       </c>
       <c r="M4" t="n">
-        <v>102280.673041601</v>
+        <v>191699.203371519</v>
       </c>
       <c r="N4" t="n">
-        <v>11530.1458481665</v>
+        <v>10038.6249025916</v>
       </c>
       <c r="O4" t="n">
-        <v>7161.9167666589</v>
+        <v>16701.082944336</v>
       </c>
       <c r="P4" t="n">
-        <v>15661.971867184</v>
+        <v>15313.6871362226</v>
       </c>
       <c r="Q4" t="n">
-        <v>43.9573339719</v>
+        <v>24.9893339719</v>
       </c>
       <c r="R4" t="n">
-        <v>227535.016121467</v>
+        <v>294537.186491844</v>
       </c>
       <c r="S4" t="n">
-        <v>227535.016121467</v>
+        <v>294537.186491844</v>
       </c>
       <c r="T4" t="n">
-        <v>21226.355023119</v>
+        <v>20753.2653693271</v>
       </c>
       <c r="U4" t="n">
         <v>219.7520266321</v>
@@ -758,72 +754,68 @@
       <c r="V4" t="n">
         <v>669.84</v>
       </c>
-      <c r="W4" t="n">
-        <v>102429.2</v>
-      </c>
+      <c r="W4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>657.2</v>
+        <v>1330.2729684252</v>
       </c>
       <c r="C5" t="n">
-        <v>185311.080994803</v>
+        <v>271023.093461511</v>
       </c>
       <c r="D5" t="n">
-        <v>48646.020411</v>
+        <v>64980.928351</v>
       </c>
       <c r="E5" t="n">
-        <v>7983.0560545984</v>
+        <v>7293.6562897254</v>
       </c>
       <c r="F5" t="n">
-        <v>7592.2338347257</v>
+        <v>6244.5657901582</v>
       </c>
       <c r="G5" t="n">
-        <v>7597.6746692942</v>
-      </c>
-      <c r="H5" t="n">
-        <v>184.2</v>
-      </c>
+        <v>7652.0414867199</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
-        <v>40497.2309</v>
+        <v>7762</v>
       </c>
       <c r="J5" t="n">
-        <v>720.0806154808</v>
+        <v>2088.2688902968</v>
       </c>
       <c r="K5" t="n">
-        <v>215419.6</v>
+        <v>272233.53364845</v>
       </c>
       <c r="L5" t="n">
-        <v>206766.707298784</v>
+        <v>264270.037358725</v>
       </c>
       <c r="M5" t="n">
-        <v>136480.86185305</v>
+        <v>206042.165110511</v>
       </c>
       <c r="N5" t="n">
-        <v>11325.8070174142</v>
+        <v>8907.359105903301</v>
       </c>
       <c r="O5" t="n">
-        <v>9485.700000000001</v>
+        <v>13147.8955889151</v>
       </c>
       <c r="P5" t="n">
-        <v>15421.1108719534</v>
+        <v>15312.7339875924</v>
       </c>
       <c r="Q5" t="n">
         <v>24.9893339719</v>
       </c>
       <c r="R5" t="n">
-        <v>259274.889896926</v>
+        <v>317278.553151553</v>
       </c>
       <c r="S5" t="n">
-        <v>259274.889896926</v>
+        <v>317278.553151553</v>
       </c>
       <c r="T5" t="n">
-        <v>24277.3213707614</v>
+        <v>28610.6000145296</v>
       </c>
       <c r="U5" t="n">
         <v>219.7520266321</v>
@@ -831,70 +823,68 @@
       <c r="V5" t="n">
         <v>669.84</v>
       </c>
-      <c r="W5" t="n">
-        <v>136665.060583803</v>
-      </c>
+      <c r="W5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>908.3653783659</v>
+        <v>1558.3528956708</v>
       </c>
       <c r="C6" t="n">
-        <v>224641.755198046</v>
+        <v>294093.015651895</v>
       </c>
       <c r="D6" t="n">
-        <v>55850.071061</v>
+        <v>67151.27803099999</v>
       </c>
       <c r="E6" t="n">
-        <v>4839.4924161391</v>
+        <v>7271.6797509963</v>
       </c>
       <c r="F6" t="n">
-        <v>6437.9686138666</v>
+        <v>2746.5145786773</v>
       </c>
       <c r="G6" t="n">
-        <v>6763.3087847638</v>
+        <v>11467.4965122602</v>
       </c>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="n">
-        <v>23336.657</v>
+        <v>6522</v>
       </c>
       <c r="J6" t="n">
-        <v>2699.4377338759</v>
+        <v>1833.8258403305</v>
       </c>
       <c r="K6" t="n">
-        <v>237898.060670305</v>
+        <v>278622.853508786</v>
       </c>
       <c r="L6" t="n">
-        <v>232388.728254166</v>
+        <v>270681.33375779</v>
       </c>
       <c r="M6" t="n">
-        <v>168791.684137046</v>
+        <v>226941.737620895</v>
       </c>
       <c r="N6" t="n">
-        <v>10643.9666173637</v>
+        <v>7848.8133537825</v>
       </c>
       <c r="O6" t="n">
-        <v>10247.5399982162</v>
+        <v>24985.2736425067</v>
       </c>
       <c r="P6" t="n">
-        <v>15399.7312477342</v>
+        <v>15312.7339875924</v>
       </c>
       <c r="Q6" t="n">
-        <v>24.9893339719</v>
+        <v>11.6221752734</v>
       </c>
       <c r="R6" t="n">
-        <v>280977.596652355</v>
+        <v>338248.793180201</v>
       </c>
       <c r="S6" t="n">
-        <v>280977.596652355</v>
+        <v>338248.793180202</v>
       </c>
       <c r="T6" t="n">
-        <v>22733.6607015687</v>
+        <v>31275.3321869952</v>
       </c>
       <c r="U6" t="n">
         <v>219.7520266321</v>
@@ -907,617 +897,477 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1348.8473406409</v>
+        <v>2826.42</v>
       </c>
       <c r="C7" t="n">
-        <v>252345.169202519</v>
+        <v>276377.49</v>
       </c>
       <c r="D7" t="n">
-        <v>60645.965831</v>
+        <v>69885.95</v>
       </c>
       <c r="E7" t="n">
-        <v>4077.1252715827</v>
+        <v>2963.55</v>
       </c>
       <c r="F7" t="n">
-        <v>4525.9129429912</v>
+        <v>2855</v>
       </c>
       <c r="G7" t="n">
-        <v>11041.9058833044</v>
+        <v>15338.87</v>
       </c>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="n">
-        <v>13880</v>
+        <v>6572</v>
       </c>
       <c r="J7" t="n">
-        <v>1464.2396097341</v>
+        <v>1807.28</v>
       </c>
       <c r="K7" t="n">
-        <v>241416.896291418</v>
+        <v>253830.67</v>
       </c>
       <c r="L7" t="n">
-        <v>236669.931019835</v>
+        <v>248537.59</v>
       </c>
       <c r="M7" t="n">
-        <v>191699.203371519</v>
+        <v>206491.55</v>
       </c>
       <c r="N7" t="n">
-        <v>10038.6249025916</v>
+        <v>6656.59</v>
       </c>
       <c r="O7" t="n">
-        <v>16701.082944336</v>
+        <v>26626.36</v>
       </c>
       <c r="P7" t="n">
-        <v>15313.6871362226</v>
+        <v>15312.73</v>
       </c>
       <c r="Q7" t="n">
-        <v>24.9893339719</v>
+        <v>71.73999999999999</v>
       </c>
       <c r="R7" t="n">
-        <v>294537.186491844</v>
+        <v>317836.97</v>
       </c>
       <c r="S7" t="n">
-        <v>294537.186491844</v>
+        <v>317836.97</v>
       </c>
       <c r="T7" t="n">
-        <v>20753.2653693271</v>
+        <v>27179.03</v>
       </c>
       <c r="U7" t="n">
-        <v>219.7520266321</v>
+        <v>219.75</v>
       </c>
       <c r="V7" t="n">
-        <v>669.84</v>
+        <v>2329.54</v>
       </c>
       <c r="W7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2013年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1330.2729684252</v>
+        <v>6485.0304966434</v>
       </c>
       <c r="C8" t="n">
-        <v>271023.093461511</v>
+        <v>308979.610148406</v>
       </c>
       <c r="D8" t="n">
-        <v>64980.928351</v>
+        <v>74884.43823099999</v>
       </c>
       <c r="E8" t="n">
-        <v>7293.6562897254</v>
+        <v>7829.007627284</v>
       </c>
       <c r="F8" t="n">
-        <v>6244.5657901582</v>
+        <v>-730.5829359368</v>
       </c>
       <c r="G8" t="n">
-        <v>7652.0414867199</v>
+        <v>7497.2596430362</v>
       </c>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="n">
-        <v>7762</v>
+        <v>500</v>
       </c>
       <c r="J8" t="n">
-        <v>2088.2688902968</v>
+        <v>3195.0727284677</v>
       </c>
       <c r="K8" t="n">
-        <v>272233.53364845</v>
+        <v>229795.769432074</v>
       </c>
       <c r="L8" t="n">
-        <v>264270.037358725</v>
+        <v>219425.262964438</v>
       </c>
       <c r="M8" t="n">
-        <v>206042.165110511</v>
+        <v>234095.171917406</v>
       </c>
       <c r="N8" t="n">
-        <v>8907.359105903301</v>
+        <v>6324.4149630395</v>
       </c>
       <c r="O8" t="n">
-        <v>13147.8955889151</v>
+        <v>84739.0201757273</v>
       </c>
       <c r="P8" t="n">
-        <v>15312.7339875924</v>
+        <v>15274.0919803581</v>
       </c>
       <c r="Q8" t="n">
-        <v>24.9893339719</v>
+        <v>81.029536175</v>
       </c>
       <c r="R8" t="n">
-        <v>317278.553151553</v>
+        <v>343711.58573041</v>
       </c>
       <c r="S8" t="n">
-        <v>317278.553151553</v>
+        <v>343711.58573041</v>
       </c>
       <c r="T8" t="n">
-        <v>28610.6000145296</v>
+        <v>25062.7032661976</v>
       </c>
       <c r="U8" t="n">
         <v>219.7520266321</v>
       </c>
       <c r="V8" t="n">
-        <v>669.84</v>
+        <v>2541.4988403522</v>
       </c>
       <c r="W8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2014年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1558.3528956708</v>
+        <v>5019.2266391006</v>
       </c>
       <c r="C9" t="n">
-        <v>294093.015651895</v>
+        <v>321870.76381857</v>
       </c>
       <c r="D9" t="n">
-        <v>67151.27803099999</v>
+        <v>77073.579591</v>
       </c>
       <c r="E9" t="n">
-        <v>7271.6797509963</v>
+        <v>3834.2922514027</v>
       </c>
       <c r="F9" t="n">
-        <v>2746.5145786773</v>
+        <v>6315.8448730546</v>
       </c>
       <c r="G9" t="n">
-        <v>11467.4965122602</v>
+        <v>18174.4798471602</v>
       </c>
       <c r="H9" t="inlineStr"/>
-      <c r="I9" t="n">
-        <v>6522</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="n">
-        <v>1833.8258403305</v>
+        <v>880.0039997565</v>
       </c>
       <c r="K9" t="n">
-        <v>278622.853508786</v>
+        <v>221164.123902008</v>
       </c>
       <c r="L9" t="n">
-        <v>270681.33375779</v>
+        <v>214788.332810253</v>
       </c>
       <c r="M9" t="n">
-        <v>226941.737620895</v>
+        <v>243802.282507463</v>
       </c>
       <c r="N9" t="n">
-        <v>7848.8133537825</v>
+        <v>5986.6217899216</v>
       </c>
       <c r="O9" t="n">
-        <v>24985.2736425067</v>
+        <v>102230.354504088</v>
       </c>
       <c r="P9" t="n">
-        <v>15312.7339875924</v>
+        <v>15274.0919803581</v>
       </c>
       <c r="Q9" t="n">
-        <v>11.6221752734</v>
+        <v>101.945085534</v>
       </c>
       <c r="R9" t="n">
-        <v>338248.793180201</v>
+        <v>362931.61710907</v>
       </c>
       <c r="S9" t="n">
-        <v>338248.793180202</v>
+        <v>362931.61710907</v>
       </c>
       <c r="T9" t="n">
-        <v>31275.3321869952</v>
+        <v>28626.0257519569</v>
       </c>
       <c r="U9" t="n">
         <v>219.7520266321</v>
       </c>
       <c r="V9" t="n">
-        <v>669.84</v>
+        <v>2541.4988403522</v>
       </c>
       <c r="W9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2015年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2826.42</v>
+        <v>4016.3</v>
       </c>
       <c r="C10" t="n">
-        <v>276377.49</v>
+        <v>330956.5</v>
       </c>
       <c r="D10" t="n">
-        <v>69885.95</v>
+        <v>79145.5</v>
       </c>
       <c r="E10" t="n">
-        <v>2963.55</v>
+        <v>2521.6</v>
       </c>
       <c r="F10" t="n">
-        <v>2855</v>
+        <v>7710.2</v>
       </c>
       <c r="G10" t="n">
-        <v>15338.87</v>
+        <v>23405.8</v>
       </c>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="n">
-        <v>6572</v>
+        <v>200</v>
       </c>
       <c r="J10" t="n">
-        <v>1807.28</v>
+        <v>1164.5</v>
       </c>
       <c r="K10" t="n">
-        <v>253830.67</v>
+        <v>217648.1</v>
       </c>
       <c r="L10" t="n">
-        <v>248537.59</v>
+        <v>212556.7</v>
       </c>
       <c r="M10" t="n">
-        <v>206491.55</v>
+        <v>235511.2</v>
       </c>
       <c r="N10" t="n">
-        <v>6656.59</v>
+        <v>4642.6</v>
       </c>
       <c r="O10" t="n">
-        <v>26626.36</v>
+        <v>111517.5</v>
       </c>
       <c r="P10" t="n">
-        <v>15312.73</v>
+        <v>15250.2</v>
       </c>
       <c r="Q10" t="n">
-        <v>71.73999999999999</v>
+        <v>27.8</v>
       </c>
       <c r="R10" t="n">
-        <v>317836.97</v>
+        <v>372492.1</v>
       </c>
       <c r="S10" t="n">
-        <v>317836.97</v>
+        <v>372492.1</v>
       </c>
       <c r="T10" t="n">
-        <v>27179.03</v>
+        <v>28224.7</v>
       </c>
       <c r="U10" t="n">
-        <v>219.75</v>
+        <v>219.8</v>
       </c>
       <c r="V10" t="n">
-        <v>2329.54</v>
+        <v>2569.8</v>
       </c>
       <c r="W10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2016年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6485.0304966434</v>
+        <v>4574.3965112</v>
       </c>
       <c r="C11" t="n">
-        <v>308979.610148406</v>
+        <v>324174.953162974</v>
       </c>
       <c r="D11" t="n">
-        <v>74884.43823099999</v>
+        <v>82859.053801</v>
       </c>
       <c r="E11" t="n">
-        <v>7829.007627284</v>
+        <v>3465.8360125211</v>
       </c>
       <c r="F11" t="n">
-        <v>-730.5829359368</v>
+        <v>7884.4854854802</v>
       </c>
       <c r="G11" t="n">
-        <v>7497.2596430362</v>
+        <v>14869.2596934432</v>
       </c>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="n">
-        <v>500</v>
+        <v>1020</v>
       </c>
       <c r="J11" t="n">
-        <v>3195.0727284677</v>
+        <v>841.7656600665</v>
       </c>
       <c r="K11" t="n">
-        <v>229795.769432074</v>
+        <v>218638.724929887</v>
       </c>
       <c r="L11" t="n">
-        <v>219425.262964438</v>
+        <v>212317.261957516</v>
       </c>
       <c r="M11" t="n">
-        <v>234095.171917406</v>
+        <v>226023.855951217</v>
       </c>
       <c r="N11" t="n">
-        <v>6324.4149630395</v>
+        <v>4623.3934824393</v>
       </c>
       <c r="O11" t="n">
-        <v>84739.0201757273</v>
+        <v>117748.859823085</v>
       </c>
       <c r="P11" t="n">
-        <v>15274.0919803581</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>81.029536175</v>
-      </c>
+        <v>15250.2449932896</v>
+      </c>
+      <c r="Q11" t="inlineStr"/>
       <c r="R11" t="n">
-        <v>343711.58573041</v>
+        <v>371130.482922144</v>
       </c>
       <c r="S11" t="n">
-        <v>343711.58573041</v>
+        <v>371130.482922144</v>
       </c>
       <c r="T11" t="n">
-        <v>25062.7032661976</v>
+        <v>32415.1300757925</v>
       </c>
       <c r="U11" t="n">
         <v>219.7520266321</v>
       </c>
       <c r="V11" t="n">
-        <v>2541.4988403522</v>
+        <v>2855.6269598502</v>
       </c>
       <c r="W11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2017年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5019.2266391006</v>
+        <v>4881.8204951884</v>
       </c>
       <c r="C12" t="n">
-        <v>321870.76381857</v>
+        <v>330428.144576142</v>
       </c>
       <c r="D12" t="n">
-        <v>77073.579591</v>
+        <v>89823.28882099999</v>
       </c>
       <c r="E12" t="n">
-        <v>3834.2922514027</v>
+        <v>3876.2506645885</v>
       </c>
       <c r="F12" t="n">
-        <v>6315.8448730546</v>
+        <v>11634.6256344222</v>
       </c>
       <c r="G12" t="n">
-        <v>18174.4798471602</v>
+        <v>16582.7032540041</v>
       </c>
       <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
+      <c r="I12" t="n">
+        <v>900</v>
+      </c>
       <c r="J12" t="n">
-        <v>880.0039997565</v>
+        <v>929.6703884926</v>
       </c>
       <c r="K12" t="n">
-        <v>221164.123902008</v>
+        <v>218039.978112956</v>
       </c>
       <c r="L12" t="n">
-        <v>214788.332810253</v>
+        <v>211308.100488517</v>
       </c>
       <c r="M12" t="n">
-        <v>243802.282507463</v>
+        <v>222906.081014857</v>
       </c>
       <c r="N12" t="n">
-        <v>5986.6217899216</v>
+        <v>4447.1428638192</v>
       </c>
       <c r="O12" t="n">
-        <v>102230.354504088</v>
+        <v>133355.469181953</v>
       </c>
       <c r="P12" t="n">
-        <v>15274.0919803581</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>101.945085534</v>
-      </c>
+        <v>15250.2449932896</v>
+      </c>
+      <c r="Q12" t="inlineStr"/>
       <c r="R12" t="n">
-        <v>362931.61710907</v>
+        <v>387675.538406022</v>
       </c>
       <c r="S12" t="n">
-        <v>362931.61710907</v>
+        <v>387675.538406022</v>
       </c>
       <c r="T12" t="n">
-        <v>28626.0257519569</v>
+        <v>38681.5252851448</v>
       </c>
       <c r="U12" t="n">
         <v>219.7520266321</v>
       </c>
       <c r="V12" t="n">
-        <v>2541.4988403522</v>
+        <v>2855.6269598502</v>
       </c>
       <c r="W12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2018年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>4016.3</v>
+        <v>6053.397781593</v>
       </c>
       <c r="C13" t="n">
-        <v>330956.5</v>
+        <v>329487.335947386</v>
       </c>
       <c r="D13" t="n">
-        <v>79145.5</v>
+        <v>96164.80218100001</v>
       </c>
       <c r="E13" t="n">
-        <v>2521.6</v>
+        <v>9379.9987956975</v>
       </c>
       <c r="F13" t="n">
-        <v>7710.2</v>
+        <v>15061.8801150516</v>
       </c>
       <c r="G13" t="n">
-        <v>23405.8</v>
+        <v>22588.0511052504</v>
       </c>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="n">
-        <v>200</v>
+        <v>950</v>
       </c>
       <c r="J13" t="n">
-        <v>1164.5</v>
+        <v>998.2070262442001</v>
       </c>
       <c r="K13" t="n">
-        <v>217648.1</v>
+        <v>225102.820995842</v>
       </c>
       <c r="L13" t="n">
-        <v>212556.7</v>
+        <v>212867.195240294</v>
       </c>
       <c r="M13" t="n">
-        <v>235511.2</v>
+        <v>212392.894113518</v>
       </c>
       <c r="N13" t="n">
-        <v>4642.6</v>
+        <v>4125.2220146041</v>
       </c>
       <c r="O13" t="n">
-        <v>111517.5</v>
+        <v>128645.470568562</v>
       </c>
       <c r="P13" t="n">
-        <v>15250.2</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>27.8</v>
-      </c>
+        <v>15240.6837398648</v>
+      </c>
+      <c r="Q13" t="inlineStr"/>
       <c r="R13" t="n">
-        <v>372492.1</v>
+        <v>395702.248424123</v>
       </c>
       <c r="S13" t="n">
-        <v>372492.1</v>
+        <v>395702.248424123</v>
       </c>
       <c r="T13" t="n">
-        <v>28224.7</v>
+        <v>42931.6755272159</v>
       </c>
       <c r="U13" t="n">
-        <v>219.8</v>
+        <v>219.7520266321</v>
       </c>
       <c r="V13" t="n">
-        <v>2569.8</v>
+        <v>2855.6269598502</v>
       </c>
       <c r="W13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>4574.3965112</v>
-      </c>
-      <c r="C14" t="n">
-        <v>324174.953162974</v>
-      </c>
-      <c r="D14" t="n">
-        <v>82859.053801</v>
-      </c>
-      <c r="E14" t="n">
-        <v>3465.8360125211</v>
-      </c>
-      <c r="F14" t="n">
-        <v>7884.4854854802</v>
-      </c>
-      <c r="G14" t="n">
-        <v>14869.2596934432</v>
-      </c>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="n">
-        <v>1020</v>
-      </c>
-      <c r="J14" t="n">
-        <v>841.7656600665</v>
-      </c>
-      <c r="K14" t="n">
-        <v>218638.724929887</v>
-      </c>
-      <c r="L14" t="n">
-        <v>212317.261957516</v>
-      </c>
-      <c r="M14" t="n">
-        <v>226023.855951217</v>
-      </c>
-      <c r="N14" t="n">
-        <v>4623.3934824393</v>
-      </c>
-      <c r="O14" t="n">
-        <v>117748.859823085</v>
-      </c>
-      <c r="P14" t="n">
-        <v>15250.2449932896</v>
-      </c>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="n">
-        <v>371130.482922144</v>
-      </c>
-      <c r="S14" t="n">
-        <v>371130.482922144</v>
-      </c>
-      <c r="T14" t="n">
-        <v>32415.1300757925</v>
-      </c>
-      <c r="U14" t="n">
-        <v>219.7520266321</v>
-      </c>
-      <c r="V14" t="n">
-        <v>2855.6269598502</v>
-      </c>
-      <c r="W14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>4881.8204951884</v>
-      </c>
-      <c r="C15" t="n">
-        <v>330428.144576142</v>
-      </c>
-      <c r="D15" t="n">
-        <v>89823.28882099999</v>
-      </c>
-      <c r="E15" t="n">
-        <v>3876.2506645885</v>
-      </c>
-      <c r="F15" t="n">
-        <v>11634.6256344222</v>
-      </c>
-      <c r="G15" t="n">
-        <v>16582.7032540041</v>
-      </c>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="n">
-        <v>900</v>
-      </c>
-      <c r="J15" t="n">
-        <v>929.6703884926</v>
-      </c>
-      <c r="K15" t="n">
-        <v>218039.978112956</v>
-      </c>
-      <c r="L15" t="n">
-        <v>211308.100488517</v>
-      </c>
-      <c r="M15" t="n">
-        <v>222906.081014857</v>
-      </c>
-      <c r="N15" t="n">
-        <v>4447.1428638192</v>
-      </c>
-      <c r="O15" t="n">
-        <v>133355.469181953</v>
-      </c>
-      <c r="P15" t="n">
-        <v>15250.2449932896</v>
-      </c>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="n">
-        <v>387675.538406022</v>
-      </c>
-      <c r="S15" t="n">
-        <v>387675.538406022</v>
-      </c>
-      <c r="T15" t="n">
-        <v>38681.5252851448</v>
-      </c>
-      <c r="U15" t="n">
-        <v>219.7520266321</v>
-      </c>
-      <c r="V15" t="n">
-        <v>2855.6269598502</v>
-      </c>
-      <c r="W15" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
